--- a/T04_M2_D2_MDM_Metadata_files/T04_M2_D2_Dim_Customer_metadata.xlsx
+++ b/T04_M2_D2_MDM_Metadata_files/T04_M2_D2_Dim_Customer_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEIS732\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T04_M2_D2_MDM_Metadata_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F50CDF7-E51A-485A-9894-FFC070F33710}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CB3A8F-DDFF-4EE6-A697-BBAE1809B95B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{5E044E6B-ABB6-4E57-9FF1-1400A39EAA67}"/>
   </bookViews>
@@ -96,20 +96,20 @@
     <t>Customer's city name</t>
   </si>
   <si>
-    <t>Uniquely identifies a customer</t>
-  </si>
-  <si>
     <t>Type of customer New/ Returning</t>
   </si>
   <si>
     <t>Customer id</t>
+  </si>
+  <si>
+    <t>Surrogate Key, Primary Key for a customer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,9 +168,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -280,32 +285,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -624,16 +629,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E20E4F1-9359-474F-9E87-7F0570A6A1F3}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.6328125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="53" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="53" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.36328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="43.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.08984375" style="2" customWidth="1"/>
@@ -641,121 +647,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="3" spans="1:6" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+    <row r="2" spans="1:6" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>19</v>
+      <c r="A4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12">
+        <v>43</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6">
-        <v>43</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
+      <c r="A5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>20</v>
+      <c r="A6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>18</v>
+      <c r="C7" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
+      <c r="A8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>22</v>
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="11">
+        <v>36</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5">
-        <v>36</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1234</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1234</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
